--- a/Code/Results/Cases/Case_8_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.381227105058656</v>
+        <v>3.397252800908063</v>
       </c>
       <c r="C2">
-        <v>0.8470048210512005</v>
+        <v>1.001606822870571</v>
       </c>
       <c r="D2">
-        <v>0.07889727155559001</v>
+        <v>0.04220178307725675</v>
       </c>
       <c r="E2">
-        <v>0.03092621221302005</v>
+        <v>0.03447548197987738</v>
       </c>
       <c r="F2">
-        <v>2.607092013403829</v>
+        <v>1.80633304014529</v>
       </c>
       <c r="G2">
-        <v>0.0008124510552330572</v>
+        <v>0.004360924549614953</v>
       </c>
       <c r="H2">
-        <v>0.001316391121691796</v>
+        <v>0.0003105525947020293</v>
       </c>
       <c r="I2">
-        <v>0.002476258730085057</v>
+        <v>0.0009134934804855277</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.586694342328499</v>
+        <v>0.9741220343055446</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4196454441902375</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3169102733651386</v>
       </c>
       <c r="N2">
-        <v>0.3868846044184124</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4082548709416187</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.943406450947464</v>
+        <v>2.958736590810929</v>
       </c>
       <c r="C3">
-        <v>0.7320177523702114</v>
+        <v>0.8686641322794344</v>
       </c>
       <c r="D3">
-        <v>0.07556882286221622</v>
+        <v>0.04119497117072513</v>
       </c>
       <c r="E3">
-        <v>0.02666607027325663</v>
+        <v>0.0317843885746647</v>
       </c>
       <c r="F3">
-        <v>2.344438722166885</v>
+        <v>1.641890414336288</v>
       </c>
       <c r="G3">
-        <v>0.0008185476701161465</v>
+        <v>0.008180818755758712</v>
       </c>
       <c r="H3">
-        <v>0.003277387578222157</v>
+        <v>0.001154337432587305</v>
       </c>
       <c r="I3">
-        <v>0.005156700546244952</v>
+        <v>0.001863012375256545</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.454646855439918</v>
+        <v>0.9146741749449845</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4073807655701458</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2854464396915475</v>
       </c>
       <c r="N3">
-        <v>0.3371407744199075</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3576383858929262</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.675440302368088</v>
+        <v>2.689444013960326</v>
       </c>
       <c r="C4">
-        <v>0.6624274552887641</v>
+        <v>0.7876967371401236</v>
       </c>
       <c r="D4">
-        <v>0.07343297148550221</v>
+        <v>0.04051008030129033</v>
       </c>
       <c r="E4">
-        <v>0.02413804728667079</v>
+        <v>0.03014175512411366</v>
       </c>
       <c r="F4">
-        <v>2.183852078826931</v>
+        <v>1.540488474335291</v>
       </c>
       <c r="G4">
-        <v>0.0008224067732266443</v>
+        <v>0.01121382257693582</v>
       </c>
       <c r="H4">
-        <v>0.004969838506892144</v>
+        <v>0.001965872454739337</v>
       </c>
       <c r="I4">
-        <v>0.00745584661640919</v>
+        <v>0.002810125504505212</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.373406481434557</v>
+        <v>0.8775627873265108</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3992323127704012</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2668398166471775</v>
       </c>
       <c r="N4">
-        <v>0.30677080536951</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3266487228240891</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.56639481986582</v>
+        <v>2.579647925332381</v>
       </c>
       <c r="C5">
-        <v>0.6349835184761332</v>
+        <v>0.7554720850667138</v>
       </c>
       <c r="D5">
-        <v>0.0723319260860471</v>
+        <v>0.04013747149521318</v>
       </c>
       <c r="E5">
-        <v>0.02310548097931475</v>
+        <v>0.02946057418333736</v>
       </c>
       <c r="F5">
-        <v>2.114116937591277</v>
+        <v>1.496014096422556</v>
       </c>
       <c r="G5">
-        <v>0.0008240215381699954</v>
+        <v>0.01262328044135452</v>
       </c>
       <c r="H5">
-        <v>0.005781211626050275</v>
+        <v>0.002369132067657098</v>
       </c>
       <c r="I5">
-        <v>0.008634231503207968</v>
+        <v>0.003372963438052601</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.336807902640729</v>
+        <v>0.8601255229293159</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3948630191777838</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.258709848864882</v>
       </c>
       <c r="N5">
-        <v>0.2944854946139372</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3140828457659524</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.548280574469516</v>
+        <v>2.561388758142073</v>
       </c>
       <c r="C6">
-        <v>0.6312875584245887</v>
+        <v>0.7508948586981035</v>
       </c>
       <c r="D6">
-        <v>0.0718952779297517</v>
+        <v>0.0399816623694127</v>
       </c>
       <c r="E6">
-        <v>0.02290978445885372</v>
+        <v>0.02933190792332185</v>
       </c>
       <c r="F6">
-        <v>2.097149322440757</v>
+        <v>1.484930853477323</v>
       </c>
       <c r="G6">
-        <v>0.0008243064635641359</v>
+        <v>0.01287939273101502</v>
       </c>
       <c r="H6">
-        <v>0.005930458169135511</v>
+        <v>0.002443847094004248</v>
       </c>
       <c r="I6">
-        <v>0.008953098433483575</v>
+        <v>0.003591170379404041</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.326540008701059</v>
+        <v>0.854592496076819</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.393040066213814</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2564891823678792</v>
       </c>
       <c r="N6">
-        <v>0.2925158724878685</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3120532628700801</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.673915069428404</v>
+        <v>2.687771182647055</v>
       </c>
       <c r="C7">
-        <v>0.6643772143936246</v>
+        <v>0.7841580483724044</v>
       </c>
       <c r="D7">
-        <v>0.07272619827378435</v>
+        <v>0.03982414481268215</v>
       </c>
       <c r="E7">
-        <v>0.02405421119298046</v>
+        <v>0.03008558511112547</v>
       </c>
       <c r="F7">
-        <v>2.16813636293513</v>
+        <v>1.511511348100328</v>
       </c>
       <c r="G7">
-        <v>0.0008224689342987224</v>
+        <v>0.01164603378001705</v>
       </c>
       <c r="H7">
-        <v>0.004999335464632493</v>
+        <v>0.001996078731851592</v>
       </c>
       <c r="I7">
-        <v>0.007762344833006196</v>
+        <v>0.00314699233770277</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.361445228200907</v>
+        <v>0.8593627796070109</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3918186156045849</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2606196543934445</v>
       </c>
       <c r="N7">
-        <v>0.3067920367709149</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3260927756550558</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229937296950595</v>
+        <v>3.245418277953434</v>
       </c>
       <c r="C8">
-        <v>0.8102141678246824</v>
+        <v>0.9408631270192416</v>
       </c>
       <c r="D8">
-        <v>0.07684684401025876</v>
+        <v>0.04024755763993504</v>
       </c>
       <c r="E8">
-        <v>0.02934030456916004</v>
+        <v>0.03347211315678322</v>
       </c>
       <c r="F8">
-        <v>2.496642589686218</v>
+        <v>1.675909417386166</v>
       </c>
       <c r="G8">
-        <v>0.0008145815730182724</v>
+        <v>0.007387909397074566</v>
       </c>
       <c r="H8">
-        <v>0.001901650323118842</v>
+        <v>0.0005714354843864289</v>
       </c>
       <c r="I8">
-        <v>0.003590528018017736</v>
+        <v>0.001562685666197439</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.525890242265376</v>
+        <v>0.9089501387771577</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3979243757686177</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2899374665492331</v>
       </c>
       <c r="N8">
-        <v>0.3699388945419315</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3891623500167611</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.329773439584926</v>
+        <v>4.340495646256386</v>
       </c>
       <c r="C9">
-        <v>1.101633948586311</v>
+        <v>1.269266067791307</v>
       </c>
       <c r="D9">
-        <v>0.08545439492705498</v>
+        <v>0.0424105927045817</v>
       </c>
       <c r="E9">
-        <v>0.04071801624031046</v>
+        <v>0.04033732144202151</v>
       </c>
       <c r="F9">
-        <v>3.175621463262303</v>
+        <v>2.079565817550488</v>
       </c>
       <c r="G9">
-        <v>0.0007999261897510516</v>
+        <v>0.00202155818413452</v>
       </c>
       <c r="H9">
-        <v>4.81194747306013E-05</v>
+        <v>0.0002303809380648225</v>
       </c>
       <c r="I9">
-        <v>0.0006821593063861542</v>
+        <v>0.001045203840178033</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.868994896023239</v>
+        <v>1.053014333258417</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4258799582193618</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3709691771801644</v>
       </c>
       <c r="N9">
-        <v>0.4952313874420611</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5154756726462608</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.146072073206199</v>
+        <v>5.145397082547845</v>
       </c>
       <c r="C10">
-        <v>1.331362191033065</v>
+        <v>1.488328613340343</v>
       </c>
       <c r="D10">
-        <v>0.08760393532315902</v>
+        <v>0.04125407609801579</v>
       </c>
       <c r="E10">
-        <v>0.04869039433796285</v>
+        <v>0.04486269035385893</v>
       </c>
       <c r="F10">
-        <v>3.600918969885441</v>
+        <v>2.222483027122053</v>
       </c>
       <c r="G10">
-        <v>0.0007898793590413474</v>
+        <v>0.009264890411282423</v>
       </c>
       <c r="H10">
-        <v>0.001854952245322838</v>
+        <v>0.001795545096373807</v>
       </c>
       <c r="I10">
-        <v>0.002790466045854423</v>
+        <v>0.00291743248547327</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.061000705823844</v>
+        <v>1.064504127301618</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4107318110829041</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3980942680147095</v>
       </c>
       <c r="N10">
-        <v>0.5670472765323638</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5833873198443911</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.509546245818001</v>
+        <v>5.503385325242164</v>
       </c>
       <c r="C11">
-        <v>1.498322102946076</v>
+        <v>1.570000886330774</v>
       </c>
       <c r="D11">
-        <v>0.06308761406270236</v>
+        <v>0.04028647465078805</v>
       </c>
       <c r="E11">
-        <v>0.0492411969262494</v>
+        <v>0.04657437239263107</v>
       </c>
       <c r="F11">
-        <v>3.144792997905569</v>
+        <v>1.752607355601029</v>
       </c>
       <c r="G11">
-        <v>0.0007872326719482114</v>
+        <v>0.04314183714662789</v>
       </c>
       <c r="H11">
-        <v>0.0206240595816638</v>
+        <v>0.0202934624588984</v>
       </c>
       <c r="I11">
-        <v>0.004211016369567666</v>
+        <v>0.00399830057864925</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.672049129553741</v>
+        <v>0.7480677743612318</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2916625613155048</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2815136793913737</v>
       </c>
       <c r="N11">
-        <v>0.4230840865009498</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4288948917992457</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.643648792624276</v>
+        <v>5.636687916124572</v>
       </c>
       <c r="C12">
-        <v>1.589745044986898</v>
+        <v>1.609278258428219</v>
       </c>
       <c r="D12">
-        <v>0.04948543892956181</v>
+        <v>0.04741263276495999</v>
       </c>
       <c r="E12">
-        <v>0.05737835300818261</v>
+        <v>0.05488458979768929</v>
       </c>
       <c r="F12">
-        <v>2.720471722561683</v>
+        <v>1.434717639257826</v>
       </c>
       <c r="G12">
-        <v>0.0007868586640634169</v>
+        <v>0.06744563258304481</v>
       </c>
       <c r="H12">
-        <v>0.05909927132122306</v>
+        <v>0.05875341218948194</v>
       </c>
       <c r="I12">
-        <v>0.004294637528374778</v>
+        <v>0.004016869143756097</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.355396046749064</v>
+        <v>0.5579029585794473</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2238013140312241</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2073568675609039</v>
       </c>
       <c r="N12">
-        <v>0.3055743923152221</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3068438462825185</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.607245614931742</v>
+        <v>5.603538993810787</v>
       </c>
       <c r="C13">
-        <v>1.630711426652056</v>
+        <v>1.63629318269551</v>
       </c>
       <c r="D13">
-        <v>0.04235602461780874</v>
+        <v>0.05543516964396389</v>
       </c>
       <c r="E13">
-        <v>0.07140778916600077</v>
+        <v>0.06972008528450502</v>
       </c>
       <c r="F13">
-        <v>2.274447653620925</v>
+        <v>1.213735033727616</v>
       </c>
       <c r="G13">
-        <v>0.000788271172173967</v>
+        <v>0.06141090291024653</v>
       </c>
       <c r="H13">
-        <v>0.114332166899672</v>
+        <v>0.1141593857067136</v>
       </c>
       <c r="I13">
-        <v>0.003627123383768804</v>
+        <v>0.003626500384350528</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.059203236222118</v>
+        <v>0.4397908533650323</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1839145024690687</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.158340102823356</v>
       </c>
       <c r="N13">
-        <v>0.2028496456360429</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2035016472889026</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.504831494694372</v>
+        <v>5.504845596829</v>
       </c>
       <c r="C14">
-        <v>1.637497582501396</v>
+        <v>1.650212496231802</v>
       </c>
       <c r="D14">
-        <v>0.04109191519176214</v>
+        <v>0.06032895411541261</v>
       </c>
       <c r="E14">
-        <v>0.08499064382531785</v>
+        <v>0.08457346727021431</v>
       </c>
       <c r="F14">
-        <v>1.955744849709063</v>
+        <v>1.092147327988329</v>
       </c>
       <c r="G14">
-        <v>0.0007900581553635394</v>
+        <v>0.04461465140339271</v>
       </c>
       <c r="H14">
-        <v>0.1632513910053035</v>
+        <v>0.1632316234015718</v>
       </c>
       <c r="I14">
-        <v>0.00300201385866572</v>
+        <v>0.003287154188344132</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8651811181388425</v>
+        <v>0.3815852223749481</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1651910355309845</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1327853573100839</v>
       </c>
       <c r="N14">
-        <v>0.1410786991184949</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1423626954378392</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.443544155278914</v>
+        <v>5.445170328745235</v>
       </c>
       <c r="C15">
-        <v>1.628971909556526</v>
+        <v>1.650803776709779</v>
       </c>
       <c r="D15">
-        <v>0.04134063219590267</v>
+        <v>0.06064984705539445</v>
       </c>
       <c r="E15">
-        <v>0.08833767437110041</v>
+        <v>0.0887035070609592</v>
       </c>
       <c r="F15">
-        <v>1.866643380761687</v>
+        <v>1.071415053794226</v>
       </c>
       <c r="G15">
-        <v>0.0007909106472218627</v>
+        <v>0.03614868733264487</v>
       </c>
       <c r="H15">
-        <v>0.1755899758914552</v>
+        <v>0.1756246262743986</v>
       </c>
       <c r="I15">
-        <v>0.002841909137208276</v>
+        <v>0.003253327138206252</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8157286111484012</v>
+        <v>0.3734940533998774</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1630213660683495</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1285450616795174</v>
       </c>
       <c r="N15">
-        <v>0.1268873096571923</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1286796431395345</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.09797971068582</v>
+        <v>5.105926681690221</v>
       </c>
       <c r="C16">
-        <v>1.520110881792846</v>
+        <v>1.603956974406742</v>
       </c>
       <c r="D16">
-        <v>0.04195003980947831</v>
+        <v>0.05176614799404433</v>
       </c>
       <c r="E16">
-        <v>0.0815566915251047</v>
+        <v>0.08595997109732423</v>
       </c>
       <c r="F16">
-        <v>1.778279154861067</v>
+        <v>1.160314843416927</v>
       </c>
       <c r="G16">
-        <v>0.0007949166691209027</v>
+        <v>0.007943293280396446</v>
       </c>
       <c r="H16">
-        <v>0.1622018820791311</v>
+        <v>0.1623469672700395</v>
       </c>
       <c r="I16">
-        <v>0.001999999764978</v>
+        <v>0.002686423170973562</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7964759130681927</v>
+        <v>0.432595739551779</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1870351135613113</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1471384070348094</v>
       </c>
       <c r="N16">
-        <v>0.1211242959434671</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1262723996875224</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.888137694204545</v>
+        <v>4.898633409442652</v>
       </c>
       <c r="C17">
-        <v>1.433602324713547</v>
+        <v>1.550923961028843</v>
       </c>
       <c r="D17">
-        <v>0.04242688790681459</v>
+        <v>0.04521251844008489</v>
       </c>
       <c r="E17">
-        <v>0.0684301593975416</v>
+        <v>0.07427040510843241</v>
       </c>
       <c r="F17">
-        <v>1.874623776774669</v>
+        <v>1.282448055779199</v>
       </c>
       <c r="G17">
-        <v>0.000797060124764879</v>
+        <v>0.002050235682859558</v>
       </c>
       <c r="H17">
-        <v>0.1242003937017415</v>
+        <v>0.1243140816713009</v>
       </c>
       <c r="I17">
-        <v>0.001779556087876166</v>
+        <v>0.00247806485516211</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8796033139502555</v>
+        <v>0.508785047581739</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2165933184092097</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1738142164042102</v>
       </c>
       <c r="N17">
-        <v>0.1470151234057084</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1547071017607564</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.77009725208319</v>
+        <v>4.78109850915547</v>
       </c>
       <c r="C18">
-        <v>1.354884998754869</v>
+        <v>1.497860322546046</v>
       </c>
       <c r="D18">
-        <v>0.04606177088950725</v>
+        <v>0.03995123166604131</v>
       </c>
       <c r="E18">
-        <v>0.05261362989903517</v>
+        <v>0.05799359930405146</v>
       </c>
       <c r="F18">
-        <v>2.16498144451279</v>
+        <v>1.49041216676541</v>
       </c>
       <c r="G18">
-        <v>0.0007977143776224382</v>
+        <v>0.0007282773878944937</v>
       </c>
       <c r="H18">
-        <v>0.07134457362650437</v>
+        <v>0.07145225579258607</v>
       </c>
       <c r="I18">
-        <v>0.001514358630502421</v>
+        <v>0.002154939792308852</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.08427724484077</v>
+        <v>0.6342710623808046</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2634711029895129</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2206158981596573</v>
       </c>
       <c r="N18">
-        <v>0.212897936211391</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2237741982103501</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.734003036074512</v>
+        <v>4.744020677610706</v>
       </c>
       <c r="C19">
-        <v>1.294571256824781</v>
+        <v>1.459094176265182</v>
       </c>
       <c r="D19">
-        <v>0.05635193782232406</v>
+        <v>0.03819627166982009</v>
       </c>
       <c r="E19">
-        <v>0.04229114323502436</v>
+        <v>0.04551945409632818</v>
       </c>
       <c r="F19">
-        <v>2.593455598014941</v>
+        <v>1.761649394394809</v>
       </c>
       <c r="G19">
-        <v>0.0007970420754752864</v>
+        <v>0.0004520704520838414</v>
       </c>
       <c r="H19">
-        <v>0.02622888627051623</v>
+        <v>0.02639634509156252</v>
       </c>
       <c r="I19">
-        <v>0.001710411263435851</v>
+        <v>0.002392723573979794</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.384788531936323</v>
+        <v>0.8004000255125732</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3243171888497329</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.284311437880298</v>
       </c>
       <c r="N19">
-        <v>0.3219638832849512</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3367768072055952</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.930318182866188</v>
+        <v>4.934261774914887</v>
       </c>
       <c r="C20">
-        <v>1.278006449059376</v>
+        <v>1.457156051308175</v>
       </c>
       <c r="D20">
-        <v>0.08480102674104728</v>
+        <v>0.04195601623383372</v>
       </c>
       <c r="E20">
-        <v>0.0462331258329467</v>
+        <v>0.0435484592574531</v>
       </c>
       <c r="F20">
-        <v>3.438541463583874</v>
+        <v>2.21699079508663</v>
       </c>
       <c r="G20">
-        <v>0.0007926118125105422</v>
+        <v>0.002468925103740638</v>
       </c>
       <c r="H20">
-        <v>0.001114067474617286</v>
+        <v>0.001266536608484081</v>
       </c>
       <c r="I20">
-        <v>0.002640176614446155</v>
+        <v>0.003207376486538571</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.971930153898796</v>
+        <v>1.075984630066856</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4198468558183279</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3965463344301128</v>
       </c>
       <c r="N20">
-        <v>0.5477346549830457</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5670771405686281</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.562684131512754</v>
+        <v>5.549617175708761</v>
       </c>
       <c r="C21">
-        <v>1.446525362644138</v>
+        <v>1.515894533463381</v>
       </c>
       <c r="D21">
-        <v>0.0919800391505845</v>
+        <v>0.03930452928968453</v>
       </c>
       <c r="E21">
-        <v>0.05453636196645961</v>
+        <v>0.04823761203130195</v>
       </c>
       <c r="F21">
-        <v>3.894358900425573</v>
+        <v>2.0728946054994</v>
       </c>
       <c r="G21">
-        <v>0.0007846679119688039</v>
+        <v>0.0645117222797964</v>
       </c>
       <c r="H21">
-        <v>0.003584794639874822</v>
+        <v>0.002712527773172102</v>
       </c>
       <c r="I21">
-        <v>0.005760003745813869</v>
+        <v>0.004906524308483817</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.214234587557002</v>
+        <v>0.9495137129532978</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3611832255466538</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3636458704752528</v>
       </c>
       <c r="N21">
-        <v>0.6375466196893882</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6434387407931439</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.978831464490497</v>
+        <v>5.952181557152471</v>
       </c>
       <c r="C22">
-        <v>1.559134304166264</v>
+        <v>1.547057961943892</v>
       </c>
       <c r="D22">
-        <v>0.09581792446767423</v>
+        <v>0.04007544594431778</v>
       </c>
       <c r="E22">
-        <v>0.05973762987323372</v>
+        <v>0.05146075872141376</v>
       </c>
       <c r="F22">
-        <v>4.177256528319361</v>
+        <v>1.954259419082888</v>
       </c>
       <c r="G22">
-        <v>0.0007796101690884475</v>
+        <v>0.1545627690241744</v>
       </c>
       <c r="H22">
-        <v>0.006002448908505986</v>
+        <v>0.003997482203573655</v>
       </c>
       <c r="I22">
-        <v>0.008542282528067879</v>
+        <v>0.006003524532395943</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.360657010921315</v>
+        <v>0.8561458133115494</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3208432109859913</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3365736631134126</v>
       </c>
       <c r="N22">
-        <v>0.6853382737232465</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6808950096202722</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.756687440284054</v>
+        <v>5.737995792156539</v>
       </c>
       <c r="C23">
-        <v>1.496012003998032</v>
+        <v>1.541917862178423</v>
       </c>
       <c r="D23">
-        <v>0.09460540616828439</v>
+        <v>0.03938037528398297</v>
       </c>
       <c r="E23">
-        <v>0.05703706132842612</v>
+        <v>0.04968940550995704</v>
       </c>
       <c r="F23">
-        <v>4.043954651087859</v>
+        <v>2.070271653702775</v>
       </c>
       <c r="G23">
-        <v>0.0007822610115581135</v>
+        <v>0.08825074784471099</v>
       </c>
       <c r="H23">
-        <v>0.004656570332140397</v>
+        <v>0.003329354630766002</v>
       </c>
       <c r="I23">
-        <v>0.006703965019710267</v>
+        <v>0.005102181985585652</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.296326877335332</v>
+        <v>0.9356813683267191</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3524635376253187</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.363199346428452</v>
       </c>
       <c r="N23">
-        <v>0.6595622688953711</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6622187579877163</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.921249387225203</v>
+        <v>4.925003712965122</v>
       </c>
       <c r="C24">
-        <v>1.266076859253644</v>
+        <v>1.448242131034817</v>
       </c>
       <c r="D24">
-        <v>0.0885796010568356</v>
+        <v>0.04288558069665083</v>
       </c>
       <c r="E24">
-        <v>0.04716008903228719</v>
+        <v>0.04403632281671022</v>
       </c>
       <c r="F24">
-        <v>3.517456392965954</v>
+        <v>2.268888737791769</v>
       </c>
       <c r="G24">
-        <v>0.0007925012257379903</v>
+        <v>0.002300175560714379</v>
       </c>
       <c r="H24">
-        <v>0.001066575143617854</v>
+        <v>0.00121497742838228</v>
       </c>
       <c r="I24">
-        <v>0.002208740329303183</v>
+        <v>0.002667900748178909</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.033097144199459</v>
+        <v>1.111582928418414</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4328995230542887</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4101808474803974</v>
       </c>
       <c r="N24">
-        <v>0.5633725690256028</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5833362155633779</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.030607221636501</v>
+        <v>4.044016063604545</v>
       </c>
       <c r="C25">
-        <v>1.025779075857059</v>
+        <v>1.191184952198057</v>
       </c>
       <c r="D25">
-        <v>0.08194060248349189</v>
+        <v>0.0420227922723706</v>
       </c>
       <c r="E25">
-        <v>0.0373790442855193</v>
+        <v>0.03838690590049421</v>
       </c>
       <c r="F25">
-        <v>2.963510609334577</v>
+        <v>1.978505555872459</v>
       </c>
       <c r="G25">
-        <v>0.0008038703909416399</v>
+        <v>0.001800128874481999</v>
       </c>
       <c r="H25">
-        <v>4.467326303769781E-05</v>
+        <v>2.441640596773098E-05</v>
       </c>
       <c r="I25">
-        <v>0.001213946689140322</v>
+        <v>0.001312577874927001</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.754959115951479</v>
+        <v>1.016996621310639</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4197864079098963</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3493179760366232</v>
       </c>
       <c r="N25">
-        <v>0.4614170267335709</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4822450582705073</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
